--- a/data/trans_orig/P64S_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Habitat-trans_orig.xlsx
@@ -835,19 +835,19 @@
         <v>33699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24859</v>
+        <v>23736</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46210</v>
+        <v>44917</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09215308324447304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06797900429543308</v>
+        <v>0.06490798585130535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1263681149985781</v>
+        <v>0.1228307910551657</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -856,19 +856,19 @@
         <v>24979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17587</v>
+        <v>18739</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33898</v>
+        <v>34356</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09033075663475786</v>
+        <v>0.09033075663475788</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06359959250353479</v>
+        <v>0.06776725744040205</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1225872437874918</v>
+        <v>0.124241901931698</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -877,19 +877,19 @@
         <v>58677</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46704</v>
+        <v>47141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72517</v>
+        <v>73643</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09136841368846128</v>
+        <v>0.09136841368846127</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0727245928232938</v>
+        <v>0.07340545382043639</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1129178428424204</v>
+        <v>0.1146722812521322</v>
       </c>
     </row>
     <row r="7">
@@ -906,19 +906,19 @@
         <v>2865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7498</v>
+        <v>8240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007836049647859576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002100790603151585</v>
+        <v>0.002091475946743151</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02050291534978153</v>
+        <v>0.02253447317742615</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -927,19 +927,19 @@
         <v>3572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7890</v>
+        <v>7594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01291867786983792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004665035996109963</v>
+        <v>0.00465089692402329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02853166111936178</v>
+        <v>0.02746160259472425</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -948,19 +948,19 @@
         <v>6438</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12904</v>
+        <v>12122</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01002456163525572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004263143373374091</v>
+        <v>0.004262492124256668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02009352222552459</v>
+        <v>0.01887591139684787</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4600</v>
+        <v>5566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002487166733352649</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01257910117431081</v>
+        <v>0.01521956037238437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4524</v>
+        <v>4633</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.001416225878962064</v>
+        <v>0.001416225878962063</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00704449525440177</v>
+        <v>0.007214402966258752</v>
       </c>
     </row>
     <row r="11">
@@ -1181,19 +1181,19 @@
         <v>4308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11054</v>
+        <v>10415</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01178162664662349</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002980851296513118</v>
+        <v>0.002976870283384479</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03022986379815581</v>
+        <v>0.02847981091799796</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1202,19 +1202,19 @@
         <v>1994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5375</v>
+        <v>5395</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.007211947285797747</v>
+        <v>0.007211947285797749</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002343254426371818</v>
+        <v>0.00233809660769956</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01943670781336193</v>
+        <v>0.01950842063252154</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1223,19 +1223,19 @@
         <v>6303</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2788</v>
+        <v>2351</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13386</v>
+        <v>12167</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.009813983603900364</v>
+        <v>0.009813983603900362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004341492264767895</v>
+        <v>0.003660869497552381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02084451581864365</v>
+        <v>0.0189455773869508</v>
       </c>
     </row>
     <row r="13">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11772</v>
+        <v>10236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008535659650582717</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03219333806184037</v>
+        <v>0.02799032313815181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3176</v>
+        <v>3194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002293236415591652</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01148611211843682</v>
+        <v>0.01155149957551622</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1294,19 +1294,19 @@
         <v>3755</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10680</v>
+        <v>12453</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005847755384616048</v>
+        <v>0.005847755384616047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0009850299404619398</v>
+        <v>0.0009907256157033876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01662984532878832</v>
+        <v>0.01939114847513702</v>
       </c>
     </row>
     <row r="14">
@@ -1323,19 +1323,19 @@
         <v>12053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6128</v>
+        <v>5773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22146</v>
+        <v>21629</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03296130398566614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01675861974553836</v>
+        <v>0.01578713214906438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06056102563473095</v>
+        <v>0.05914584160983752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1344,19 +1344,19 @@
         <v>14339</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8874</v>
+        <v>8902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21489</v>
+        <v>21710</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05185425755136474</v>
+        <v>0.05185425755136475</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03209156951662625</v>
+        <v>0.03219397606086935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07771124231494968</v>
+        <v>0.07851059834311402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1365,19 +1365,19 @@
         <v>26392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18483</v>
+        <v>18163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38892</v>
+        <v>38442</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04109635804629076</v>
+        <v>0.04109635804629075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02878059400760058</v>
+        <v>0.02828260675957914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0605600180777591</v>
+        <v>0.05985949129160685</v>
       </c>
     </row>
     <row r="15">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3682</v>
+        <v>4249</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001985162708806622</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01006956324257127</v>
+        <v>0.01162045227174701</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4048</v>
+        <v>3741</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001130378098283989</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.006302723377290477</v>
+        <v>0.00582448341348207</v>
       </c>
     </row>
     <row r="16">
@@ -1473,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4359</v>
+        <v>4054</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.00427589098896328</v>
+        <v>0.004275890988963281</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01576494779705852</v>
+        <v>0.01465974299165544</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3767</v>
+        <v>3895</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.001841141684469477</v>
+        <v>0.001841141684469476</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005865428995379294</v>
+        <v>0.006064906985998622</v>
       </c>
     </row>
     <row r="17">
@@ -1520,19 +1520,19 @@
         <v>250235</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>230325</v>
+        <v>231387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>268017</v>
+        <v>268859</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.684298747635272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6298523539881038</v>
+        <v>0.6327576456542041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.732924590628968</v>
+        <v>0.7352277925023407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -1541,19 +1541,19 @@
         <v>156149</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142157</v>
+        <v>141964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170210</v>
+        <v>170484</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5646842567878257</v>
+        <v>0.5646842567878259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5140830808799639</v>
+        <v>0.5133869947111573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6155336691249036</v>
+        <v>0.6165222131361996</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -1562,19 +1562,19 @@
         <v>406384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382859</v>
+        <v>380456</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>432255</v>
+        <v>428112</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.632794341715134</v>
+        <v>0.6327943417151337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5961626988829141</v>
+        <v>0.5924205673318717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6730782038009412</v>
+        <v>0.6666274692070506</v>
       </c>
     </row>
     <row r="18">
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11606</v>
+        <v>10496</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0057881286041668</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03173809617564187</v>
+        <v>0.02870233328035157</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1628,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10450</v>
+        <v>10567</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003295837552849464</v>
+        <v>0.003295837552849463</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01627263110608427</v>
+        <v>0.01645391664788605</v>
       </c>
     </row>
     <row r="19">
@@ -1654,19 +1654,19 @@
         <v>55647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42418</v>
+        <v>42283</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71998</v>
+        <v>71587</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.152173071143197</v>
+        <v>0.1521730711431969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1159985064615623</v>
+        <v>0.1156268721297578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1968875903982022</v>
+        <v>0.1957639702894819</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -1675,19 +1675,19 @@
         <v>73675</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60783</v>
+        <v>61404</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85933</v>
+        <v>86429</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2664309764658608</v>
+        <v>0.2664309764658609</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.219809518341502</v>
+        <v>0.2220545459357912</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3107607163502763</v>
+        <v>0.3125535222689145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -1696,19 +1696,19 @@
         <v>129322</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109656</v>
+        <v>109957</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149646</v>
+        <v>148884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.201371002711777</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1707491618559591</v>
+        <v>0.1712179926065074</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2330183776216656</v>
+        <v>0.2318316149762451</v>
       </c>
     </row>
     <row r="20">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8091</v>
+        <v>8034</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002315410352027535</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01303187319389462</v>
+        <v>0.01294041565425365</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7290</v>
+        <v>6366</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.001353389167542588</v>
+        <v>0.001353389167542589</v>
       </c>
       <c r="V21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.00686350831983702</v>
+        <v>0.005993149635755654</v>
       </c>
     </row>
     <row r="22">
@@ -1910,19 +1910,19 @@
         <v>33498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23243</v>
+        <v>22927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>48955</v>
+        <v>48603</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0539548794281538</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03743775081689023</v>
+        <v>0.03692781963000741</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07885152889486653</v>
+        <v>0.07828436958322069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -1931,19 +1931,19 @@
         <v>51395</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>40394</v>
+        <v>42001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>64149</v>
+        <v>63523</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1164569847978823</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09153082088109031</v>
+        <v>0.09517126040128049</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1453575504441742</v>
+        <v>0.143938812014895</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>115</v>
@@ -1952,19 +1952,19 @@
         <v>84893</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69364</v>
+        <v>69256</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>104313</v>
+        <v>103947</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07992364534817165</v>
+        <v>0.07992364534817167</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06530376193722875</v>
+        <v>0.06520176294232004</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09820667274652739</v>
+        <v>0.09786209300347785</v>
       </c>
     </row>
     <row r="24">
@@ -1981,19 +1981,19 @@
         <v>11929</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5717</v>
+        <v>6515</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21133</v>
+        <v>22084</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01921318708659897</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009207801268964713</v>
+        <v>0.0104942211399329</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03403902166032852</v>
+        <v>0.03557017025783282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -2002,19 +2002,19 @@
         <v>11096</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6136</v>
+        <v>6331</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18102</v>
+        <v>18444</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02514185578395783</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01390350220262557</v>
+        <v>0.01434664051118428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04101742397573951</v>
+        <v>0.04179343781936706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -2023,19 +2023,19 @@
         <v>23024</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14255</v>
+        <v>13900</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34893</v>
+        <v>32634</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02167646746264877</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01342065958158155</v>
+        <v>0.01308621286377993</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03285044196108565</v>
+        <v>0.03072381305805861</v>
       </c>
     </row>
     <row r="25">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9171</v>
+        <v>9243</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003041647457377842</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01477115776100794</v>
+        <v>0.01488680970663012</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3753</v>
+        <v>4101</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001822755255668265</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008504669846301709</v>
+        <v>0.009293625065251917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2097,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9572</v>
+        <v>10921</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.00253521449674894</v>
+        <v>0.002535214496748941</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009011656751729219</v>
+        <v>0.0102814647180433</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4185</v>
+        <v>4580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003090397291941978</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009483161047049077</v>
+        <v>0.01037845343083013</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4753</v>
+        <v>4903</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.001284017608679905</v>
+        <v>0.001284017608679906</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00447494978117873</v>
+        <v>0.004616317478727066</v>
       </c>
     </row>
     <row r="27">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5984</v>
+        <v>5938</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002769704073349742</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.009638217198530127</v>
+        <v>0.009564465936480832</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6102</v>
+        <v>6063</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001618930090248446</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.005745219980718738</v>
+        <v>0.005708000817036116</v>
       </c>
     </row>
     <row r="28">
@@ -2296,19 +2296,19 @@
         <v>18057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10371</v>
+        <v>10407</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30128</v>
+        <v>29472</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.02908481568869856</v>
+        <v>0.02908481568869855</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01670368187998424</v>
+        <v>0.01676169963460126</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04852619426802208</v>
+        <v>0.04746966017526093</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2317,19 +2317,19 @@
         <v>8516</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4003</v>
+        <v>4220</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15242</v>
+        <v>15582</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01929594165740245</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009069661324988215</v>
+        <v>0.009562616725392147</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03453643697162587</v>
+        <v>0.03530721481375748</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2338,19 +2338,19 @@
         <v>26573</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17776</v>
+        <v>16863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39276</v>
+        <v>39945</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02501767304069443</v>
+        <v>0.02501767304069444</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01673509323520281</v>
+        <v>0.0158755813823853</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03697672603331473</v>
+        <v>0.03760667517734733</v>
       </c>
     </row>
     <row r="30">
@@ -2367,19 +2367,19 @@
         <v>3541</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10108</v>
+        <v>11184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.005703628433737956</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001470679388430547</v>
+        <v>0.001464569880722116</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01628010318619677</v>
+        <v>0.01801327818875488</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5384</v>
+        <v>6997</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002491340497985191</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01220053074994338</v>
+        <v>0.01585443180662132</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2409,19 +2409,19 @@
         <v>4641</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1107</v>
+        <v>1183</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11212</v>
+        <v>12149</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004368966937492374</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001042260470628381</v>
+        <v>0.001114145261925806</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01055524974900056</v>
+        <v>0.01143830275443909</v>
       </c>
     </row>
     <row r="31">
@@ -2438,19 +2438,19 @@
         <v>16024</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8949</v>
+        <v>8336</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28444</v>
+        <v>27653</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02580873984159965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01441391353265538</v>
+        <v>0.01342596742497601</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04581360111370135</v>
+        <v>0.04454066393264159</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2459,19 +2459,19 @@
         <v>12161</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7170</v>
+        <v>6871</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19423</v>
+        <v>19110</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02755553172082874</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01624581576012219</v>
+        <v>0.01557030791751173</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04401035126244889</v>
+        <v>0.04330108948046289</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>28</v>
@@ -2480,19 +2480,19 @@
         <v>28184</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18592</v>
+        <v>19124</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41362</v>
+        <v>41821</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.02653450786420226</v>
+        <v>0.02653450786420227</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01750355793882105</v>
+        <v>0.01800477836092952</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0389405142539372</v>
+        <v>0.03937264563415015</v>
       </c>
     </row>
     <row r="32">
@@ -2509,19 +2509,19 @@
         <v>5318</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1759</v>
+        <v>1740</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12997</v>
+        <v>11702</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.008565871615014075</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002833375172399439</v>
+        <v>0.002803060320582412</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0209340018193416</v>
+        <v>0.01884778543167032</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2543,19 +2543,19 @@
         <v>5318</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2153</v>
+        <v>1761</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12175</v>
+        <v>12525</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.005006869665313961</v>
+        <v>0.005006869665313962</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002026746007444834</v>
+        <v>0.001658200159856666</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01146211020184891</v>
+        <v>0.01179161522239901</v>
       </c>
     </row>
     <row r="33">
@@ -2572,19 +2572,19 @@
         <v>11311</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5627</v>
+        <v>5187</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22833</v>
+        <v>22832</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01821876085480564</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.009062957858664398</v>
+        <v>0.008355167143186489</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03677726933330639</v>
+        <v>0.03677431591805207</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>19</v>
@@ -2593,19 +2593,19 @@
         <v>15843</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>9790</v>
+        <v>9662</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>25178</v>
+        <v>24295</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.03589822657023548</v>
+        <v>0.03589822657023547</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02218307777835281</v>
+        <v>0.0218945118000045</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05705238534207983</v>
+        <v>0.05505179733755498</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>28</v>
@@ -2614,19 +2614,19 @@
         <v>27154</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>17413</v>
+        <v>17956</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>39192</v>
+        <v>40107</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.02556433592046318</v>
+        <v>0.02556433592046319</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01639347929847578</v>
+        <v>0.01690530267424993</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03689809410888438</v>
+        <v>0.03775937460630724</v>
       </c>
     </row>
     <row r="34">
@@ -2643,19 +2643,19 @@
         <v>409364</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>380591</v>
+        <v>381287</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>435384</v>
+        <v>435848</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6593549739653496</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6130096466052174</v>
+        <v>0.6141312116384141</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7012636206694128</v>
+        <v>0.7020112965190788</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>288</v>
@@ -2664,19 +2664,19 @@
         <v>218230</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>200010</v>
+        <v>199568</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>238167</v>
+        <v>238472</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.494494668739991</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4532085635953288</v>
+        <v>0.4522069618253632</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5396705297843379</v>
+        <v>0.5403629662737256</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>631</v>
@@ -2685,19 +2685,19 @@
         <v>627594</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>594453</v>
+        <v>591680</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>664308</v>
+        <v>660589</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5908577825415621</v>
+        <v>0.590857782541562</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5596569725262314</v>
+        <v>0.55704653338691</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6254233685312464</v>
+        <v>0.62192164561066</v>
       </c>
     </row>
     <row r="35">
@@ -2714,19 +2714,19 @@
         <v>5231</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1970</v>
+        <v>1668</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12705</v>
+        <v>12067</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.008425155161138325</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003173406359979797</v>
+        <v>0.0026862233850716</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02046410663578264</v>
+        <v>0.01943584081281799</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4524</v>
+        <v>4091</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002672803960932176</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01025042355499853</v>
+        <v>0.009270152843395496</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2756,19 +2756,19 @@
         <v>6410</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2596</v>
+        <v>2645</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13924</v>
+        <v>13891</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.006035132282321241</v>
+        <v>0.006035132282321243</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002444342753703914</v>
+        <v>0.002489731200380844</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01310909957751202</v>
+        <v>0.01307811989537138</v>
       </c>
     </row>
     <row r="36">
@@ -2785,19 +2785,19 @@
         <v>101537</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>80918</v>
+        <v>80083</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>125530</v>
+        <v>126710</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1635432260421483</v>
+        <v>0.1635432260421482</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1303322037462416</v>
+        <v>0.1289875937484935</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2021878001244889</v>
+        <v>0.2040889542897062</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>151</v>
@@ -2806,19 +2806,19 @@
         <v>119633</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103590</v>
+        <v>101589</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>138413</v>
+        <v>137802</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2710794937231746</v>
+        <v>0.2710794937231745</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.234728562388287</v>
+        <v>0.2301935023371516</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3136356573650947</v>
+        <v>0.3122509266220501</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>230</v>
@@ -2827,19 +2827,19 @@
         <v>221169</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>193038</v>
+        <v>197950</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>251800</v>
+        <v>253514</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2082230675739101</v>
+        <v>0.2082230675739102</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1817382479865544</v>
+        <v>0.1863632034617133</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2370610100626954</v>
+        <v>0.238674944474067</v>
       </c>
     </row>
     <row r="37">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4007</v>
+        <v>5127</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.002801139748228292</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01206387000878136</v>
+        <v>0.01543632336978863</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5580</v>
+        <v>6585</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001249565218647113</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.007494551407739657</v>
+        <v>0.00884456870039649</v>
       </c>
     </row>
     <row r="40">
@@ -3041,19 +3041,19 @@
         <v>12212</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6193</v>
+        <v>6783</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20958</v>
+        <v>21028</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.02961216378352129</v>
+        <v>0.02961216378352128</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0150162321510086</v>
+        <v>0.01644811362016705</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05082066986825708</v>
+        <v>0.05099123161993036</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>26</v>
@@ -3062,19 +3062,19 @@
         <v>20058</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13691</v>
+        <v>13041</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>28328</v>
+        <v>28835</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06039484852381842</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04122143760450483</v>
+        <v>0.03926565024507988</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08529354336614769</v>
+        <v>0.08682139310228409</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>37</v>
@@ -3083,19 +3083,19 @@
         <v>32270</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>22299</v>
+        <v>22679</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>44543</v>
+        <v>43148</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04334406424024911</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02995133640668262</v>
+        <v>0.03046181054930445</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0598286238174342</v>
+        <v>0.05795466818069717</v>
       </c>
     </row>
     <row r="41">
@@ -3112,19 +3112,19 @@
         <v>3387</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8752</v>
+        <v>9179</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.008211999401579356</v>
+        <v>0.008211999401579354</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002146856060059949</v>
+        <v>0.002157548872835887</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02122280275117705</v>
+        <v>0.02225691011868837</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>12</v>
@@ -3133,19 +3133,19 @@
         <v>10300</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5399</v>
+        <v>5490</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17544</v>
+        <v>17524</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03101213080915057</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01625668570154796</v>
+        <v>0.01653146714444881</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05282534012090339</v>
+        <v>0.05276344331351083</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -3154,19 +3154,19 @@
         <v>13686</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7867</v>
+        <v>7510</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>23291</v>
+        <v>22486</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.01838294899647358</v>
+        <v>0.01838294899647357</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01056626258705168</v>
+        <v>0.01008686469446107</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03128392161838753</v>
+        <v>0.03020242012094668</v>
       </c>
     </row>
     <row r="42">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>5837</v>
+        <v>4745</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.002778438133900183</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01415469521454882</v>
+        <v>0.01150694145121986</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6626</v>
+        <v>5774</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001538999917195578</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008900127126079748</v>
+        <v>0.007755845666384107</v>
       </c>
     </row>
     <row r="45">
@@ -3387,19 +3387,19 @@
         <v>11230</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4718</v>
+        <v>4846</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>21803</v>
+        <v>26826</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02723265008365643</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0114399661043379</v>
+        <v>0.01175191760108237</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05286861524980669</v>
+        <v>0.06505080378660866</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>15</v>
@@ -3408,19 +3408,19 @@
         <v>12436</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>7234</v>
+        <v>7099</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>19889</v>
+        <v>21819</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03744407896642695</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02178231929622977</v>
+        <v>0.02137408252740093</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05988519539557114</v>
+        <v>0.06569714533474723</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>22</v>
@@ -3429,19 +3429,19 @@
         <v>23666</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14869</v>
+        <v>14629</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>37060</v>
+        <v>38069</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03178788384972224</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01997116003827229</v>
+        <v>0.01964900386891617</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0497780563438201</v>
+        <v>0.05113275267442659</v>
       </c>
     </row>
     <row r="47">
@@ -3471,19 +3471,19 @@
         <v>2878</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8507</v>
+        <v>9360</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.008665558966442763</v>
+        <v>0.008665558966442761</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002087270949170887</v>
+        <v>0.002097454193130274</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02561278820741628</v>
+        <v>0.02818237102605742</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3492,19 +3492,19 @@
         <v>2878</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8740</v>
+        <v>8747</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.003865634012530534</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0009225583400364944</v>
+        <v>0.0009282075978541163</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01173870664079987</v>
+        <v>0.01174834479164863</v>
       </c>
     </row>
     <row r="48">
@@ -3521,19 +3521,19 @@
         <v>12951</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6485</v>
+        <v>6818</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22179</v>
+        <v>22487</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.03140503204447699</v>
+        <v>0.03140503204447698</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01572530110363429</v>
+        <v>0.01653346986982597</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05378176861035718</v>
+        <v>0.05452856472003016</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>11</v>
@@ -3542,19 +3542,19 @@
         <v>8867</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>4430</v>
+        <v>5075</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>16150</v>
+        <v>18060</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.02669765571159852</v>
+        <v>0.02669765571159853</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01333816339258103</v>
+        <v>0.01528070083530548</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04862537159769605</v>
+        <v>0.05437683336939795</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>21</v>
@@ -3563,19 +3563,19 @@
         <v>21818</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>13018</v>
+        <v>13457</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>33255</v>
+        <v>32909</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02930511048920008</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01748520047669608</v>
+        <v>0.01807457482994003</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04466714581977357</v>
+        <v>0.04420178163960593</v>
       </c>
     </row>
     <row r="49">
@@ -3595,16 +3595,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8435</v>
+        <v>8186</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.005482184126729539</v>
+        <v>0.005482184126729538</v>
       </c>
       <c r="H49" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.02045429722662143</v>
+        <v>0.01985098578132581</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>3697</v>
+        <v>3505</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.002252563458166106</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01113082164551264</v>
+        <v>0.0105532487950492</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3</v>
@@ -3634,19 +3634,19 @@
         <v>3009</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>9241</v>
+        <v>8834</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.004041477121870815</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001004500644910474</v>
+        <v>0.0009939333597361849</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01241151463603068</v>
+        <v>0.01186521331542149</v>
       </c>
     </row>
     <row r="50">
@@ -3663,19 +3663,19 @@
         <v>8183</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2815</v>
+        <v>3330</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>15997</v>
+        <v>16473</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01984269400486325</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.006825260770854788</v>
+        <v>0.008074396045781975</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03879116258640802</v>
+        <v>0.03994447556350448</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>12</v>
@@ -3684,19 +3684,19 @@
         <v>12115</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6427</v>
+        <v>6421</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>21326</v>
+        <v>21855</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03647782041314276</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01935026562640978</v>
+        <v>0.01933246325040732</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06421289107175086</v>
+        <v>0.06580308786828291</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>18</v>
@@ -3705,19 +3705,19 @@
         <v>20298</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>12247</v>
+        <v>11984</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>33168</v>
+        <v>31817</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02726348598096214</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01645009261060488</v>
+        <v>0.01609628040716292</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04454965863550105</v>
+        <v>0.04273586781323457</v>
       </c>
     </row>
     <row r="51">
@@ -3734,19 +3734,19 @@
         <v>306908</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>285657</v>
+        <v>281349</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>327122</v>
+        <v>327545</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7442164400627008</v>
+        <v>0.7442164400627007</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6926847261127794</v>
+        <v>0.6822381437756662</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.793233257960672</v>
+        <v>0.7942584656582611</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>255</v>
@@ -3755,19 +3755,19 @@
         <v>201609</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>186356</v>
+        <v>184926</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>216352</v>
+        <v>216846</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.607033593098391</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.5611091436426199</v>
+        <v>0.5568019040770823</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.6514248916651818</v>
+        <v>0.6529119763638951</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>497</v>
@@ -3776,19 +3776,19 @@
         <v>508517</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>481632</v>
+        <v>481203</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>534501</v>
+        <v>535101</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.6830203093555439</v>
+        <v>0.6830203093555438</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.6469093490755921</v>
+        <v>0.6463333722270215</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.7179213799739045</v>
+        <v>0.7187271340098644</v>
       </c>
     </row>
     <row r="52">
@@ -3805,19 +3805,19 @@
         <v>9012</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2142</v>
+        <v>2189</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>25539</v>
+        <v>30457</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.02185370913408425</v>
+        <v>0.02185370913408424</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.005192994636277376</v>
+        <v>0.005308990873726124</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.0619291935512108</v>
+        <v>0.07385516582681219</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>5</v>
@@ -3826,19 +3826,19 @@
         <v>4212</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1500</v>
+        <v>1428</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>9570</v>
+        <v>8955</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01268226302922413</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.004517370625062264</v>
+        <v>0.004298334541460495</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02881412921703105</v>
+        <v>0.02696269837959112</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>9</v>
@@ -3847,19 +3847,19 @@
         <v>13224</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>5571</v>
+        <v>5575</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>27624</v>
+        <v>30059</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01776240306319708</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.007482242714083136</v>
+        <v>0.007487961628100331</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03710299318272368</v>
+        <v>0.04037464876969636</v>
       </c>
     </row>
     <row r="53">
@@ -3876,19 +3876,19 @@
         <v>45101</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>33185</v>
+        <v>31754</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>64141</v>
+        <v>63043</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.1093646892244881</v>
+        <v>0.109364689224488</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.08047032109777984</v>
+        <v>0.07699855012654112</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.155534490399974</v>
+        <v>0.1528710484445499</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>73</v>
@@ -3897,19 +3897,19 @@
         <v>57968</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>46695</v>
+        <v>47073</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>71407</v>
+        <v>71982</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1745383472754103</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.140596665174666</v>
+        <v>0.1417338169118418</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2150033642941298</v>
+        <v>0.216733664647825</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>109</v>
@@ -3918,19 +3918,19 @@
         <v>103069</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>84641</v>
+        <v>84266</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>125105</v>
+        <v>123239</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1384381177544079</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1136870299450328</v>
+        <v>0.1131827205336771</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1680361468728152</v>
+        <v>0.165529850485566</v>
       </c>
     </row>
     <row r="54">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>4563</v>
+        <v>5249</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.001814657826577905</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.008960115061373456</v>
+        <v>0.0103079560135649</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4610</v>
+        <v>5743</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0009718813735836914</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.004847658992019364</v>
+        <v>0.006039641999800899</v>
       </c>
     </row>
     <row r="57">
@@ -4132,19 +4132,19 @@
         <v>26548</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>18172</v>
+        <v>17878</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>36635</v>
+        <v>38668</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05212961393053824</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03568279056730417</v>
+        <v>0.03510537977143464</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.07193740126566583</v>
+        <v>0.07592984055948293</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>45</v>
@@ -4153,19 +4153,19 @@
         <v>27556</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>20452</v>
+        <v>20678</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>35944</v>
+        <v>37298</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.06239843793900492</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.04631250290298763</v>
+        <v>0.04682466165992342</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.08139340423897064</v>
+        <v>0.08445836145847441</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>75</v>
@@ -4174,19 +4174,19 @@
         <v>54104</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>43466</v>
+        <v>43893</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>67839</v>
+        <v>67657</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.05689873511003782</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.04571157588698921</v>
+        <v>0.0461603184622395</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.07134338718168254</v>
+        <v>0.0711525442974513</v>
       </c>
     </row>
     <row r="58">
@@ -4203,19 +4203,19 @@
         <v>35474</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>24187</v>
+        <v>24406</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>50441</v>
+        <v>50600</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.06965684106822252</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.04749354588667026</v>
+        <v>0.04792486662578308</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.09904676741780051</v>
+        <v>0.09935862550119316</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>35</v>
@@ -4224,19 +4224,19 @@
         <v>31077</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>22123</v>
+        <v>21414</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>42995</v>
+        <v>44231</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.07037234921201477</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.05009516361340711</v>
+        <v>0.04849016010638667</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.09735929909921374</v>
+        <v>0.1001580121491293</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>65</v>
@@ -4245,19 +4245,19 @@
         <v>66551</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>51758</v>
+        <v>51480</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>85578</v>
+        <v>84453</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.06998914251187863</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.05443206787668821</v>
+        <v>0.05413918453511573</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.08999895723550598</v>
+        <v>0.08881558575592943</v>
       </c>
     </row>
     <row r="59">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>5176</v>
+        <v>4659</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.001790921534500665</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.0101634210763534</v>
+        <v>0.00914943502003706</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>5254</v>
+        <v>4624</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.000959168861169538</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.005525250373145768</v>
+        <v>0.004863288429916865</v>
       </c>
     </row>
     <row r="62">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>14149</v>
+        <v>13188</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.005178000318297498</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02778268788867613</v>
+        <v>0.02589631839122006</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>3738</v>
+        <v>3884</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.001637692596697804</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.00846519140759674</v>
+        <v>0.008795188589441729</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>2</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>15036</v>
+        <v>15803</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.00353378511672174</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.0158126908587699</v>
+        <v>0.0166196480937951</v>
       </c>
     </row>
     <row r="63">
@@ -4502,19 +4502,19 @@
         <v>7679</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>3095</v>
+        <v>3332</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>15726</v>
+        <v>15591</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.0150791955125135</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.006077801506389155</v>
+        <v>0.00654354321162742</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.03087955528916878</v>
+        <v>0.03061478197558322</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>21</v>
@@ -4523,19 +4523,19 @@
         <v>15864</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>10144</v>
+        <v>10171</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>24642</v>
+        <v>24935</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.03592336268762591</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.02297059041462679</v>
+        <v>0.02303124608801832</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.05579892253516543</v>
+        <v>0.0564626520509404</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>28</v>
@@ -4544,19 +4544,19 @@
         <v>23544</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>15871</v>
+        <v>15374</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>33118</v>
+        <v>33694</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.02475979370583107</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01669115686755622</v>
+        <v>0.01616769220984634</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03482905742930275</v>
+        <v>0.03543510077641178</v>
       </c>
     </row>
     <row r="64">
@@ -4576,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>6092</v>
+        <v>5636</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.002195003632650921</v>
+        <v>0.00219500363265092</v>
       </c>
       <c r="H64" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.01196268189944055</v>
+        <v>0.01106610729855365</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>5643</v>
+        <v>6247</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.001175584241986231</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.005934714660453966</v>
+        <v>0.006569689372424908</v>
       </c>
     </row>
     <row r="65">
@@ -4636,19 +4636,19 @@
         <v>41621</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>28717</v>
+        <v>29003</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>57513</v>
+        <v>57737</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.08172759455066025</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.05638902398034924</v>
+        <v>0.05695007026174765</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1129329041487717</v>
+        <v>0.1133740373460822</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>33</v>
@@ -4657,19 +4657,19 @@
         <v>24862</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>17753</v>
+        <v>17357</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>36015</v>
+        <v>34863</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.05629804420787941</v>
+        <v>0.05629804420787942</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.04020107230161715</v>
+        <v>0.03930456900123676</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.0815525737828728</v>
+        <v>0.07894522525100992</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>66</v>
@@ -4678,19 +4678,19 @@
         <v>66483</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>51775</v>
+        <v>50813</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>85729</v>
+        <v>84379</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.06991741969276863</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.05444999997102237</v>
+        <v>0.05343803911043024</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.09015772165196287</v>
+        <v>0.08873817040068266</v>
       </c>
     </row>
     <row r="66">
@@ -4707,19 +4707,19 @@
         <v>3194</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>8609</v>
+        <v>9564</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.006271248477458928</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.001691518235692515</v>
+        <v>0.001724913675307436</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.01690549462522131</v>
+        <v>0.01878014568449597</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>6</v>
@@ -4728,19 +4728,19 @@
         <v>7585</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>2785</v>
+        <v>2970</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>16932</v>
+        <v>17893</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.01717639570997542</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.006305580166306119</v>
+        <v>0.006724959904145771</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.03834224786814729</v>
+        <v>0.04051822624644913</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>9</v>
@@ -4749,19 +4749,19 @@
         <v>10779</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>4722</v>
+        <v>4681</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>19846</v>
+        <v>20498</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.0113358954700722</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.004966220394306003</v>
+        <v>0.004922597257445507</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.02087076941032028</v>
+        <v>0.02155729241835699</v>
       </c>
     </row>
     <row r="67">
@@ -4778,19 +4778,19 @@
         <v>40683</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>28533</v>
+        <v>29132</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>54731</v>
+        <v>56043</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.07988573107220785</v>
+        <v>0.07988573107220784</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.05602854205599345</v>
+        <v>0.05720341887590557</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.1074703089015608</v>
+        <v>0.1100460976891615</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>55</v>
@@ -4799,19 +4799,19 @@
         <v>45739</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>35211</v>
+        <v>34550</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>57673</v>
+        <v>58879</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.1035730827103477</v>
+        <v>0.1035730827103478</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.07973260997533149</v>
+        <v>0.07823504210725196</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.1305957163138913</v>
+        <v>0.1333279653443641</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>91</v>
@@ -4820,19 +4820,19 @@
         <v>86422</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>68202</v>
+        <v>69106</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>103677</v>
+        <v>105765</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.09088678146420645</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.07172575780261718</v>
+        <v>0.07267567358891458</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.1090332454457557</v>
+        <v>0.1112291912609375</v>
       </c>
     </row>
     <row r="68">
@@ -4849,19 +4849,19 @@
         <v>272552</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>247661</v>
+        <v>246680</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>296507</v>
+        <v>295296</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.5351872174600004</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.4863110870846669</v>
+        <v>0.4843848545043852</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.5822250519265162</v>
+        <v>0.5798475252442861</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>231</v>
@@ -4870,19 +4870,19 @@
         <v>168036</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>150305</v>
+        <v>150241</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>186427</v>
+        <v>185478</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.3805051358220315</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.3403545439183345</v>
+        <v>0.3402097712920523</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.4221486087286767</v>
+        <v>0.4200013105109607</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>487</v>
@@ -4891,19 +4891,19 @@
         <v>440588</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>409144</v>
+        <v>411890</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>469230</v>
+        <v>471891</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.4633486514255171</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.4302805426152493</v>
+        <v>0.4331681416945625</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.4934700045934832</v>
+        <v>0.4962685942093271</v>
       </c>
     </row>
     <row r="69">
@@ -4920,19 +4920,19 @@
         <v>11977</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>5426</v>
+        <v>6214</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>21932</v>
+        <v>21489</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.02351810310409931</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.01065443091564101</v>
+        <v>0.01220133526410585</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.04306619967766281</v>
+        <v>0.042196834314461</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>12</v>
@@ -4941,19 +4941,19 @@
         <v>9523</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>5055</v>
+        <v>5122</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>16930</v>
+        <v>16650</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.02156394132397623</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.01144706865612334</v>
+        <v>0.01159854964192862</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.03833723313950333</v>
+        <v>0.03770319756274945</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>22</v>
@@ -4962,19 +4962,19 @@
         <v>21500</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>13975</v>
+        <v>13091</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>33091</v>
+        <v>33058</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.02261053722059896</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.01469647313210316</v>
+        <v>0.01376778963096564</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.03479994763349634</v>
+        <v>0.03476599046945086</v>
       </c>
     </row>
     <row r="70">
@@ -4991,19 +4991,19 @@
         <v>63946</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>48601</v>
+        <v>49262</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>82350</v>
+        <v>82755</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.1255658715122721</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.09543421725553555</v>
+        <v>0.09673126589124302</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1617039419145599</v>
+        <v>0.1624996454472323</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>152</v>
@@ -5012,19 +5012,19 @@
         <v>110647</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>95980</v>
+        <v>95597</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>127000</v>
+        <v>127496</v>
       </c>
       <c r="N70" s="6" t="n">
-        <v>0.2505515577904462</v>
+        <v>0.2505515577904463</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.2173381329652617</v>
+        <v>0.2164718285155411</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.2875810622632189</v>
+        <v>0.288705290685267</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>210</v>
@@ -5033,19 +5033,19 @@
         <v>174593</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>151543</v>
+        <v>153022</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>196564</v>
+        <v>199514</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.1836126238056279</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1593716519185884</v>
+        <v>0.1609266626947463</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.206718431508212</v>
+        <v>0.2098204484869189</v>
       </c>
     </row>
     <row r="71">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>6383</v>
+        <v>5841</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.0007533493672308719</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.003345128626098545</v>
+        <v>0.003060882984053997</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>8370</v>
+        <v>8651</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.0004228330204170084</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.002461784613020161</v>
+        <v>0.002544730214709033</v>
       </c>
     </row>
     <row r="73">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.0004843019102556936</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.002419153882571974</v>
+        <v>0.002419636429034344</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>4727</v>
+        <v>4186</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.0006237125233847015</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.003169060083807105</v>
+        <v>0.002806099666356282</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>2</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>6553</v>
+        <v>5590</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.0005454654136218013</v>
@@ -5254,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.001927584100244472</v>
+        <v>0.001644171361715001</v>
       </c>
     </row>
     <row r="74">
@@ -5271,19 +5271,19 @@
         <v>105956</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>87556</v>
+        <v>85679</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>129078</v>
+        <v>125950</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.0555270863681273</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.04588419620655527</v>
+        <v>0.0449006781094641</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.0676440131910138</v>
+        <v>0.06600494272110805</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>198</v>
@@ -5292,19 +5292,19 @@
         <v>123988</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>106650</v>
+        <v>107939</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>142891</v>
+        <v>143391</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.08312521408994712</v>
+        <v>0.08312521408994711</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.07150143616802603</v>
+        <v>0.07236554565664609</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.09579844616068856</v>
+        <v>0.09613390195291768</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>312</v>
@@ -5313,19 +5313,19 @@
         <v>229944</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>204096</v>
+        <v>205107</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>258070</v>
+        <v>260759</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.06763519019125414</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.06003232664336567</v>
+        <v>0.06032962053270939</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.07590805344521587</v>
+        <v>0.0766990721456845</v>
       </c>
     </row>
     <row r="75">
@@ -5342,19 +5342,19 @@
         <v>53654</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>38774</v>
+        <v>38292</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>71335</v>
+        <v>70335</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.02811793879668906</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.02031950396744905</v>
+        <v>0.0200669504643292</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.03738335438731919</v>
+        <v>0.03685945822248453</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>66</v>
@@ -5363,19 +5363,19 @@
         <v>56045</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>43395</v>
+        <v>43333</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>71054</v>
+        <v>69922</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.03757434370539174</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.02909304598142287</v>
+        <v>0.02905198174566065</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.04763679690184943</v>
+        <v>0.04687769873170473</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>112</v>
@@ -5384,19 +5384,19 @@
         <v>109700</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>90524</v>
+        <v>89317</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>134624</v>
+        <v>133516</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.03226673952629697</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.02662662098203059</v>
+        <v>0.02627156744302847</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.03959806576331179</v>
+        <v>0.03927202686413204</v>
       </c>
     </row>
     <row r="76">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>9993</v>
+        <v>9414</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.000989640210146101</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.005236768397859587</v>
+        <v>0.004933503747398395</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>4031</v>
+        <v>4496</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.000539305323750145</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.002702481347599936</v>
+        <v>0.003014588583077359</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>2</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>11285</v>
+        <v>11048</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.0007920651566997322</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.003319216044846755</v>
+        <v>0.00324962232498112</v>
       </c>
     </row>
     <row r="77">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>4767</v>
+        <v>4758</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.0009143672508223271</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.003195855075073584</v>
+        <v>0.003189622802664767</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>2</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>4763</v>
+        <v>4830</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.0004011595901366368</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.00140111193065582</v>
+        <v>0.001420781756225012</v>
       </c>
     </row>
     <row r="78">
@@ -5547,19 +5547,19 @@
         <v>4687</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1746</v>
+        <v>1785</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>10227</v>
+        <v>10696</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.002456226246637899</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.0009152177032405888</v>
+        <v>0.000935242975448307</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.005359277691246896</v>
+        <v>0.005605268935108911</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>4687</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>1709</v>
+        <v>1770</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>10308</v>
+        <v>11098</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.001378608130396362</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.0005028111168970057</v>
+        <v>0.0005207319962175456</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.003031912333050081</v>
+        <v>0.003264236215723551</v>
       </c>
     </row>
     <row r="79">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>13255</v>
+        <v>14423</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.001381921929703483</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.006946510521555434</v>
+        <v>0.007558236308118927</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>1</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>3651</v>
+        <v>3628</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.0004848740117390437</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.002447850890255213</v>
+        <v>0.002432477805070749</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>2</v>
@@ -5652,19 +5652,19 @@
         <v>3360</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>15247</v>
+        <v>13982</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.0009883608361932969</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.0002095999047186226</v>
+        <v>0</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.004484780447897122</v>
+        <v>0.004112662427577492</v>
       </c>
     </row>
     <row r="80">
@@ -5681,19 +5681,19 @@
         <v>41276</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>28245</v>
+        <v>27897</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>57426</v>
+        <v>57355</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.02163073153091076</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.01480178119310365</v>
+        <v>0.01461938894393643</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.0300944382513367</v>
+        <v>0.0300573063295733</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>49</v>
@@ -5702,19 +5702,19 @@
         <v>38810</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>29086</v>
+        <v>28707</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>51021</v>
+        <v>50774</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.02601951593696163</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.01950041263847737</v>
+        <v>0.01924629948363806</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.03420633523116256</v>
+        <v>0.0340403974528447</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>82</v>
@@ -5723,19 +5723,19 @@
         <v>80086</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>63516</v>
+        <v>63265</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>100827</v>
+        <v>100034</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.02355621929520465</v>
+        <v>0.02355621929520464</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.01868240867532859</v>
+        <v>0.0186087371482214</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.02965695667125414</v>
+        <v>0.02942380843506302</v>
       </c>
     </row>
     <row r="81">
@@ -5752,19 +5752,19 @@
         <v>7780</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>3269</v>
+        <v>2803</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>17701</v>
+        <v>16992</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.004077310640838517</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.001713057179654434</v>
+        <v>0.00146908249418799</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.00927607287551587</v>
+        <v>0.008904749073002325</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>5</v>
@@ -5773,19 +5773,19 @@
         <v>4612</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>1401</v>
+        <v>1453</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>10948</v>
+        <v>11188</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.003091774172418752</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.0009394075575211496</v>
+        <v>0.0009744229449431329</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.007339906857598577</v>
+        <v>0.00750106152678757</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>11</v>
@@ -5794,19 +5794,19 @@
         <v>12392</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>6486</v>
+        <v>5980</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>21898</v>
+        <v>21793</v>
       </c>
       <c r="U81" s="6" t="n">
-        <v>0.003644927038538216</v>
+        <v>0.003644927038538215</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.001907693292820248</v>
+        <v>0.001759080470463198</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.006440952217933121</v>
+        <v>0.006410039260799198</v>
       </c>
     </row>
     <row r="82">
@@ -5823,19 +5823,19 @@
         <v>82649</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>62516</v>
+        <v>64100</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>103234</v>
+        <v>104062</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.04331269666948536</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.0327618210240669</v>
+        <v>0.03359209477268975</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.0541002334825437</v>
+        <v>0.05453442881157914</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>80</v>
@@ -5844,19 +5844,19 @@
         <v>60229</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>47608</v>
+        <v>47560</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>75034</v>
+        <v>75622</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>0.04037911672225471</v>
+        <v>0.0403791167222547</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.0319181346528153</v>
+        <v>0.03188565203714237</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.05030514510694439</v>
+        <v>0.05069908798520172</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>145</v>
@@ -5865,19 +5865,19 @@
         <v>142878</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>121026</v>
+        <v>118022</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>171471</v>
+        <v>169225</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.04202564955771957</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.03559841553117537</v>
+        <v>0.03471456142359493</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.05043605849240512</v>
+        <v>0.04977553137755164</v>
       </c>
     </row>
     <row r="83">
@@ -5894,19 +5894,19 @@
         <v>11499</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>5816</v>
+        <v>6301</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>19910</v>
+        <v>21117</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.006025931359647398</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.003047936286165074</v>
+        <v>0.003301980101589122</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.01043390915926599</v>
+        <v>0.01106658083194452</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>7</v>
@@ -5915,19 +5915,19 @@
         <v>8333</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>2904</v>
+        <v>3720</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>17617</v>
+        <v>20156</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.005587004700473745</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.001946880294739444</v>
+        <v>0.002494089978282378</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01181067140800647</v>
+        <v>0.01351311192698552</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>18</v>
@@ -5936,19 +5936,19 @@
         <v>19832</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>11854</v>
+        <v>12231</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>31679</v>
+        <v>32342</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.005833361428325175</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.003486831973125311</v>
+        <v>0.003597730671120454</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.009318024651121734</v>
+        <v>0.009513136536318075</v>
       </c>
     </row>
     <row r="84">
@@ -5965,19 +5965,19 @@
         <v>60177</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>46179</v>
+        <v>46281</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>79057</v>
+        <v>80572</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.03153621291639932</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.02420052107303319</v>
+        <v>0.02425404139426754</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.04143043280049689</v>
+        <v>0.04222413672694875</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>88</v>
@@ -5986,19 +5986,19 @@
         <v>74879</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>60914</v>
+        <v>59791</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>94834</v>
+        <v>91745</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.05020137618890151</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.04083843398436664</v>
+        <v>0.04008593994289062</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.06357983552221939</v>
+        <v>0.06150887936584278</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>139</v>
@@ -6007,19 +6007,19 @@
         <v>135056</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>111918</v>
+        <v>113443</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>160835</v>
+        <v>161386</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.03972516461113291</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.032919239826386</v>
+        <v>0.03336772084123455</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.04730769450822058</v>
+        <v>0.047469801189612</v>
       </c>
     </row>
     <row r="85">
@@ -6036,19 +6036,19 @@
         <v>1239059</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1194261</v>
+        <v>1191053</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>1287316</v>
+        <v>1286108</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.6493367682937975</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.6258601665981331</v>
+        <v>0.624178814034664</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.6746258628137118</v>
+        <v>0.6739929145528668</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>989</v>
@@ -6057,19 +6057,19 @@
         <v>744024</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>710665</v>
+        <v>709435</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>775852</v>
+        <v>779880</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.4988164917874402</v>
+        <v>0.4988164917874403</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.4764513489229471</v>
+        <v>0.4756271569787797</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.5201551287963357</v>
+        <v>0.5228550265815584</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>2054</v>
@@ -6078,19 +6078,19 @@
         <v>1983083</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>1928611</v>
+        <v>1920472</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>2042512</v>
+        <v>2041267</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.583299131473101</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.5672767420409044</v>
+        <v>0.5648827923561441</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.6007793410170195</v>
+        <v>0.6004131431703745</v>
       </c>
     </row>
     <row r="86">
@@ -6107,19 +6107,19 @@
         <v>28337</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>18525</v>
+        <v>16568</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>47587</v>
+        <v>48019</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.01484998779274781</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.009708147919668524</v>
+        <v>0.00868273380238095</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.02493827457342413</v>
+        <v>0.02516465693457881</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>19</v>
@@ -6128,19 +6128,19 @@
         <v>14915</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>9160</v>
+        <v>9482</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>23427</v>
+        <v>22872</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.009999160958289588</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.006141158572802665</v>
+        <v>0.006357285158922346</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.01570590680158074</v>
+        <v>0.01533404487574988</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>39</v>
@@ -6149,19 +6149,19 @@
         <v>43251</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>28930</v>
+        <v>30437</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>60862</v>
+        <v>63277</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.01272178853475275</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.008509497883869212</v>
+        <v>0.008952787999073888</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.01790165743667121</v>
+        <v>0.01861206992067943</v>
       </c>
     </row>
     <row r="87">
@@ -6178,19 +6178,19 @@
         <v>266231</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>233007</v>
+        <v>231513</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>303910</v>
+        <v>300576</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.1395198959673831</v>
+        <v>0.139519895967383</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.1221089489068408</v>
+        <v>0.1213258078623541</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.159265734213992</v>
+        <v>0.1575186268710774</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>490</v>
@@ -6199,19 +6199,19 @@
         <v>361922</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>331209</v>
+        <v>331016</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>391098</v>
+        <v>392648</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.2426437426282248</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.2220524430321476</v>
+        <v>0.221923271399193</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.2622037448505307</v>
+        <v>0.2632429022339758</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>714</v>
@@ -6220,19 +6220,19 @@
         <v>628153</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>582049</v>
+        <v>583687</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>676066</v>
+        <v>674983</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.1847633361962099</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.171202379345446</v>
+        <v>0.1716842459308939</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.198856218037803</v>
+        <v>0.1985377776407279</v>
       </c>
     </row>
     <row r="88">
